--- a/AAII_Financials/Quarterly/SPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/SPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>SPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,182 @@
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42277</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E8" s="3">
         <v>49700</v>
       </c>
-      <c r="E8" s="3">
-        <v>125600</v>
-      </c>
       <c r="F8" s="3">
+        <v>74900</v>
+      </c>
+      <c r="G8" s="3">
         <v>50600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>121500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>67500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>114600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>65400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>83400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>47300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E9" s="3">
         <v>44100</v>
       </c>
-      <c r="E9" s="3">
-        <v>114500</v>
-      </c>
       <c r="F9" s="3">
+        <v>69400</v>
+      </c>
+      <c r="G9" s="3">
         <v>45100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>111400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>59200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>102500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>55300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>92300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>40800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E10" s="3">
         <v>5600</v>
-      </c>
-      <c r="E10" s="3">
-        <v>11100</v>
       </c>
       <c r="F10" s="3">
         <v>5500</v>
       </c>
       <c r="G10" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H10" s="3">
         <v>10100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-8900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -841,8 +854,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -876,8 +890,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,43 +928,49 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1900</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>26800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>142100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>52600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>56200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,8 +1004,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -993,78 +1019,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E17" s="3">
         <v>56200</v>
       </c>
-      <c r="E17" s="3">
-        <v>126600</v>
-      </c>
       <c r="F17" s="3">
+        <v>76100</v>
+      </c>
+      <c r="G17" s="3">
         <v>50600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>123700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>78500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>206200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>141600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>179300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>63800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>55800</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6500</v>
       </c>
-      <c r="E18" s="3">
-        <v>-1000</v>
-      </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-2200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-91600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-76200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-95900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-16500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,43 +1111,47 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
-        <v>1900</v>
-      </c>
       <c r="F20" s="3">
+        <v>500</v>
+      </c>
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-16100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-6300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1139,122 +1176,134 @@
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>-98200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-25800</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E22" s="3">
         <v>1500</v>
       </c>
-      <c r="E22" s="3">
-        <v>6700</v>
-      </c>
       <c r="F22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G22" s="3">
         <v>4000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7600</v>
       </c>
-      <c r="E23" s="3">
-        <v>-5800</v>
-      </c>
       <c r="F23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-26400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-101400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-87100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-102300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-31700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13600</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1288,78 +1337,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7800</v>
       </c>
-      <c r="E26" s="3">
-        <v>-6100</v>
-      </c>
       <c r="F26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-26500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-102000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-87300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-102500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-31000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7800</v>
       </c>
-      <c r="E27" s="3">
-        <v>-6200</v>
-      </c>
       <c r="F27" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-26700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-101700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-87100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-102400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-30800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1393,8 +1451,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1402,34 +1463,37 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-6100</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="G29" s="3">
         <v>-3000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-64400</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-119000</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1463,8 +1527,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1498,78 +1565,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
-        <v>-1900</v>
-      </c>
       <c r="F32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>16100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>6300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7800</v>
       </c>
-      <c r="E33" s="3">
-        <v>-12300</v>
-      </c>
       <c r="F33" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="G33" s="3">
         <v>-5500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-91100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-220700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-87100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-102400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-30800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1603,83 +1679,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7800</v>
       </c>
-      <c r="E35" s="3">
-        <v>-12300</v>
-      </c>
       <c r="F35" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="G35" s="3">
         <v>-5500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-91100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-220700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-87100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-102400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-30800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42277</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1693,8 +1778,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1708,43 +1794,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E41" s="3">
         <v>8700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>31000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>82100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>67500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>119700</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1778,253 +1868,277 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E43" s="3">
         <v>25700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>28300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>46400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>44700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>58700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>69400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>92000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>78500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>102800</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E44" s="3">
         <v>13300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>11900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>13500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>15800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>20100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>12300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>15000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>59700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>87600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>63100</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E45" s="3">
         <v>28100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>29500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>65900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>83200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>79200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>114800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>159700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>181500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>160100</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E46" s="3">
         <v>75800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>73900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>130600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>131300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>151700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>154300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>230200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>393600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>415000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>445700</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E47" s="3">
         <v>70400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>74700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>92000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>88000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>60400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>46800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>65100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>46200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>40500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E48" s="3">
         <v>43600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>37500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>86300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>39800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>159400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>156700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>172800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>186200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>183400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>178700</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E49" s="3">
         <v>2900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>2900</v>
       </c>
       <c r="I49" s="3">
         <v>2900</v>
       </c>
       <c r="J49" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K49" s="3">
         <v>80400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>80500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>80800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2058,8 +2172,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2093,8 +2210,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2105,31 +2225,34 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>61200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2163,43 +2286,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>178900</v>
+      </c>
+      <c r="E54" s="3">
         <v>192900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>188700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>312200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>317300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>376300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>361800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>549400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>709600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>727000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>731200</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2213,8 +2342,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2228,8 +2358,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2237,209 +2368,227 @@
         <v>19700</v>
       </c>
       <c r="E57" s="3">
+        <v>19700</v>
+      </c>
+      <c r="F57" s="3">
         <v>16300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>54500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>74300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>69600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>77400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>97800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>113700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>121900</v>
+      </c>
+      <c r="E58" s="3">
         <v>52500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>44800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>169500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>66900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>156100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>147700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>158500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>248800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>183200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>161000</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E59" s="3">
         <v>101900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>105500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>160000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>331800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>127900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>113200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>103100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>127000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>113500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>140700</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E60" s="3">
         <v>174000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>166500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>383900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>386300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>358300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>330500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>338900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>473600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>410400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>400800</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E61" s="3">
         <v>13100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>20100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>26900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>23200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>32000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>36700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>29300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E62" s="3">
         <v>4500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>46700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2473,8 +2622,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2508,8 +2660,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2543,43 +2698,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>187000</v>
+      </c>
+      <c r="E66" s="3">
         <v>195700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>192600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>417900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>419100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>401200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>378800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>418400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>496600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>435100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>424200</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2593,8 +2754,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2628,8 +2790,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2663,8 +2828,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2698,8 +2866,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2733,43 +2904,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-585400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-578000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-570100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-563300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-557800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-481100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-466800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-333100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-246100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-143700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-112900</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2803,8 +2980,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2838,8 +3018,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2873,43 +3056,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-105600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-101700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-24900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-17000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>131000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>213000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>291900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>306900</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2943,83 +3132,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42277</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7800</v>
       </c>
-      <c r="E81" s="3">
-        <v>-12300</v>
-      </c>
       <c r="F81" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="G81" s="3">
         <v>-5500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-91100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-220700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-87100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-102400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-30800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3033,8 +3231,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3060,16 +3259,19 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>1800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2800</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3103,8 +3305,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3138,8 +3343,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3173,8 +3381,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3208,8 +3419,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3243,8 +3457,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3270,16 +3487,19 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-19000</v>
       </c>
-      <c r="M89" s="3" t="s">
+      <c r="N89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3293,8 +3513,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3320,16 +3541,19 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-14600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6900</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3363,8 +3587,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3398,8 +3625,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3425,16 +3655,19 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-21800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-48200</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3448,8 +3681,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3483,8 +3717,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3518,8 +3755,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3553,8 +3793,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3588,8 +3831,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3615,16 +3861,19 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>37700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>20200</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3658,8 +3907,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3685,12 +3937,15 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>14700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-46900</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>SPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,195 @@
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42277</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E8" s="3">
         <v>48200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>49700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>74900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>50600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>121500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>67500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>114600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>65400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>83400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>47300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E9" s="3">
         <v>46500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>44100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>69400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>45100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>111400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>59200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>102500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>55300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>92300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>40800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5600</v>
-      </c>
-      <c r="F10" s="3">
-        <v>5500</v>
       </c>
       <c r="G10" s="3">
         <v>5500</v>
       </c>
       <c r="H10" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I10" s="3">
         <v>10100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-8900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,8 +868,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +907,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,46 +948,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>4700</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1900</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>26800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>142100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>52600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>56200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,8 +1030,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,84 +1046,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E17" s="3">
         <v>60800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>56200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>76100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>50600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>123700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>78500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>206200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>141600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>179300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>63800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>55800</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-12600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-91600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-76200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-95900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-16500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1112,46 +1145,50 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>7600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-16100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-6300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-12100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1179,131 +1216,143 @@
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>-98200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-25800</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E22" s="3">
         <v>2400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-26400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-101400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-87100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-102300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-31700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13600</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1340,84 +1389,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-26500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-102000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-87300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-102500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-31000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-26700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-101700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-87100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-102400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-30800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,46 +1512,52 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-3100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-3000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-64400</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-119000</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1594,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1568,84 +1635,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>16100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>6300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>12100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-91100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-220700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-87100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-102400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-30800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,89 +1758,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-91100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-220700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-87100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-102400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-30800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42277</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1864,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,46 +1881,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E41" s="3">
         <v>2800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>31000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>82100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>67500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>119700</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1871,160 +1961,175 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E43" s="3">
         <v>16700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>25700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>28300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>46400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>16500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>44700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>58700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>69400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>92000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>78500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>102800</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E44" s="3">
         <v>13800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>11900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>13500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>15800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>20100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>12300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>15000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>59700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>87600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>63100</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E45" s="3">
         <v>23300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>28100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>29500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>65900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>83200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>79200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>114800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>159700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>181500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>160100</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E46" s="3">
         <v>56500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>75800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>73900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>130600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>131300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>151700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>154300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>230200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>393600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>415000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>445700</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2032,75 +2137,81 @@
         <v>69900</v>
       </c>
       <c r="E47" s="3">
+        <v>69900</v>
+      </c>
+      <c r="F47" s="3">
         <v>70400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>74700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>92000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>88000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>60400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>46800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>65100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>46200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>40500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E48" s="3">
         <v>50300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>43600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>37500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>86300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>39800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>159400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>156700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>172800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>186200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>183400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>178700</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2108,37 +2219,40 @@
         <v>2200</v>
       </c>
       <c r="E49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F49" s="3">
         <v>2900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2900</v>
       </c>
       <c r="J49" s="3">
         <v>2900</v>
       </c>
       <c r="K49" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L49" s="3">
         <v>80400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>80500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>80800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2175,8 +2289,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,13 +2330,16 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -2228,31 +2348,34 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>61200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,46 +2412,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>179700</v>
+      </c>
+      <c r="E54" s="3">
         <v>178900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>192900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>188700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>312200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>317300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>376300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>361800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>549400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>709600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>727000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>731200</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2472,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2359,236 +2489,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>19700</v>
+        <v>17500</v>
       </c>
       <c r="E57" s="3">
         <v>19700</v>
       </c>
       <c r="F57" s="3">
+        <v>19700</v>
+      </c>
+      <c r="G57" s="3">
         <v>16300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>54500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>74300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>69600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>77400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>97800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>113700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>121800</v>
+      </c>
+      <c r="E58" s="3">
         <v>121900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>52500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>44800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>169500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>66900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>156100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>147700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>158500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>248800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>183200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>161000</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E59" s="3">
         <v>28400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>101900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>105500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>160000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>331800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>127900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>113200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>103100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>127000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>113500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>140700</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>164700</v>
+      </c>
+      <c r="E60" s="3">
         <v>170000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>174000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>166500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>383900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>386300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>358300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>330500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>338900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>473600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>410400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>400800</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E61" s="3">
         <v>7800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>20100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>26900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>23200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>32000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>36700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>29300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E62" s="3">
         <v>6500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>46700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,8 +2774,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2815,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,46 +2856,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>182200</v>
+      </c>
+      <c r="E66" s="3">
         <v>187000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>195700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>192600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>417900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>419100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>401200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>378800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>418400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>496600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>435100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>424200</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,8 +2916,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2793,8 +2955,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2831,8 +2996,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2869,8 +3037,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,46 +3078,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-582700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-585400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-578000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-570100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-563300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-557800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-481100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-466800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-333100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-246100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-143700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-112900</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2983,8 +3160,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3201,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,46 +3242,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-8200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-105600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-101700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-24900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-17000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>131000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>213000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>291900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>306900</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3135,89 +3324,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42277</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-91100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-220700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-87100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-102400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-30800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,8 +3430,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3262,16 +3461,19 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>1800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2800</v>
       </c>
-      <c r="N83" s="3" t="s">
+      <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3510,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3346,8 +3551,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3384,8 +3592,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3422,8 +3633,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3460,8 +3674,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3490,16 +3707,19 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-19000</v>
       </c>
-      <c r="N89" s="3" t="s">
+      <c r="O89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3514,8 +3734,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3544,16 +3765,19 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-14600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6900</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3590,8 +3814,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3628,8 +3855,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3658,16 +3888,19 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-21800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-48200</v>
       </c>
-      <c r="N94" s="3" t="s">
+      <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3682,8 +3915,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3720,8 +3954,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3758,8 +3995,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3796,8 +4036,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3834,8 +4077,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3864,16 +4110,19 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>37700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>20200</v>
       </c>
-      <c r="N100" s="3" t="s">
+      <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3910,8 +4159,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3940,12 +4192,15 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>14700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-46900</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>SPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,195 +665,208 @@
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42277</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>82300</v>
+      </c>
+      <c r="E8" s="3">
         <v>56400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>48200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>49700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>74900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>50600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>121500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>67500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>114600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>65400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>83400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>47300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E9" s="3">
         <v>53200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>46500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>44100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>69400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>45100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>111400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>59200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>102500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>55300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>92300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>40800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E10" s="3">
         <v>3200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5600</v>
-      </c>
-      <c r="G10" s="3">
-        <v>5500</v>
       </c>
       <c r="H10" s="3">
         <v>5500</v>
       </c>
       <c r="I10" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J10" s="3">
         <v>10100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-8900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -869,8 +882,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,8 +924,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -951,49 +968,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4700</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1900</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>26800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>142100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>52600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>56200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1033,8 +1056,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,90 +1073,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>85600</v>
+      </c>
+      <c r="E17" s="3">
         <v>52900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>60800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>56200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>76100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>50600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>123700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>78500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>206200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>141600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>179300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>63800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>55800</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E18" s="3">
         <v>3500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-12600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1200</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-91600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-76200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-95900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-16500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,49 +1179,53 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-16100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-6300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-12100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1219,140 +1256,152 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>-98200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-25800</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E22" s="3">
         <v>2100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E23" s="3">
         <v>3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-26400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-101400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-87100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-102300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-31700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13600</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1392,90 +1441,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-26500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-102000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-87300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-102500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-31000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E27" s="3">
         <v>2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-26700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-101700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-87100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-102400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-30800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1515,49 +1573,55 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-3100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-3000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-64400</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-119000</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1597,8 +1661,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1638,90 +1705,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>16100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>6300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E33" s="3">
         <v>2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-91100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-220700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-87100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-102400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-30800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1761,95 +1837,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E35" s="3">
         <v>2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-91100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-220700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-87100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-102400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-30800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42277</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1865,8 +1950,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,49 +1968,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E41" s="3">
         <v>3300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>31000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>82100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>67500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>119700</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1964,172 +2054,187 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E43" s="3">
         <v>17100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>25700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>28300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>46400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>44700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>58700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>69400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>92000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>78500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>102800</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E44" s="3">
         <v>10600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>13300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>11900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>13500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>15800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>20100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>15000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>59700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>87600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>63100</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E45" s="3">
         <v>26500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>28100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>29500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>65900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>83200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>79200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>114800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>159700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>181500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>160100</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E46" s="3">
         <v>57500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>56500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>75800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>73900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>130600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>131300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>151700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>154300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>230200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>393600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>415000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>445700</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2140,119 +2245,128 @@
         <v>69900</v>
       </c>
       <c r="F47" s="3">
+        <v>69900</v>
+      </c>
+      <c r="G47" s="3">
         <v>70400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>74700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>92000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>88000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>60400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>46800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>65100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>46200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>40500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E48" s="3">
         <v>50100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>50300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>43600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>37500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>86300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>39800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>159400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>156700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>172800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>186200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>183400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>178700</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2200</v>
+        <v>8600</v>
       </c>
       <c r="E49" s="3">
         <v>2200</v>
       </c>
       <c r="F49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G49" s="3">
         <v>2900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>2900</v>
       </c>
       <c r="K49" s="3">
         <v>2900</v>
       </c>
       <c r="L49" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M49" s="3">
         <v>80400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>80500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>80800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2292,8 +2406,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2333,16 +2450,19 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -2351,31 +2471,34 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
+        <v>100</v>
+      </c>
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>61200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2415,49 +2538,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>217000</v>
+      </c>
+      <c r="E54" s="3">
         <v>179700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>178900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>192900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>188700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>312200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>317300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>376300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>361800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>549400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>709600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>727000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>731200</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2473,8 +2602,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2490,254 +2620,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E57" s="3">
         <v>17500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>19700</v>
       </c>
       <c r="F57" s="3">
         <v>19700</v>
       </c>
       <c r="G57" s="3">
+        <v>19700</v>
+      </c>
+      <c r="H57" s="3">
         <v>16300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>54500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>74300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>69600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>77400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>97800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>113700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>125500</v>
+      </c>
+      <c r="E58" s="3">
         <v>121800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>121900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>52500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>44800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>169500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>66900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>156100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>147700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>158500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>248800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>183200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>161000</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E59" s="3">
         <v>25400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>101900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>105500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>160000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>331800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>127900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>113200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>103100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>127000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>113500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>140700</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>151600</v>
+      </c>
+      <c r="E60" s="3">
         <v>164700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>170000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>174000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>166500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>383900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>386300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>358300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>330500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>338900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>473600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>410400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>400800</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E61" s="3">
         <v>6700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>13100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>20100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>26900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>23200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>32000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>36700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>29300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E62" s="3">
         <v>8000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>46700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2777,8 +2926,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2818,8 +2970,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2859,49 +3014,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>171800</v>
+      </c>
+      <c r="E66" s="3">
         <v>182200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>187000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>195700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>192600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>417900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>419100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>401200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>378800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>418400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>496600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>435100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>424200</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2917,8 +3078,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2958,8 +3120,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2999,8 +3164,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3040,8 +3208,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3081,49 +3252,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-591900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-582700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-585400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-578000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-570100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-563300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-557800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-481100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-466800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-333100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-246100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-143700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-112900</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3163,8 +3340,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3204,8 +3384,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3245,49 +3428,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-8200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-105600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-101700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-24900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-17000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>131000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>213000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>291900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>306900</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3327,95 +3516,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42277</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E81" s="3">
         <v>2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-91100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-220700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-87100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-102400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-30800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3431,8 +3629,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3464,16 +3663,19 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>1800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2800</v>
       </c>
-      <c r="O83" s="3" t="s">
+      <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3513,8 +3715,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3554,8 +3759,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3595,8 +3803,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3636,8 +3847,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3677,8 +3891,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3710,16 +3927,19 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-19000</v>
       </c>
-      <c r="O89" s="3" t="s">
+      <c r="P89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3735,8 +3955,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3768,16 +3989,19 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-14600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6900</v>
       </c>
-      <c r="O91" s="3" t="s">
+      <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3817,8 +4041,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3858,8 +4085,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3891,16 +4121,19 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-21800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-48200</v>
       </c>
-      <c r="O94" s="3" t="s">
+      <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3916,8 +4149,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3957,8 +4191,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3998,8 +4235,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4039,8 +4279,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4080,8 +4323,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4113,16 +4359,19 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>37700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>20200</v>
       </c>
-      <c r="O100" s="3" t="s">
+      <c r="P100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4162,8 +4411,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4195,12 +4447,15 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>14700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-46900</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="P102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>SPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,198 +675,224 @@
     <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42369</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42277</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>79400</v>
+      </c>
+      <c r="F8" s="3">
         <v>82300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>56400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>48200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>49700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>74900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>50600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>121500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>67500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>114600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>65400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>83400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>47300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>72100</v>
+      </c>
+      <c r="F9" s="3">
         <v>68600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>53200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>46500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>44100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>69400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>45100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>111400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>59200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>102500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>55300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>92300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>40800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F10" s="3">
         <v>13700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>3200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>5600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>5500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>5500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>10100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>8300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>12100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>10100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-8900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>6500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -883,8 +909,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -927,8 +955,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -971,8 +1005,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -983,40 +1023,46 @@
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>4700</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1900</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>26800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>142100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>52600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>56200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1059,8 +1105,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1074,96 +1126,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>111600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>91900</v>
+      </c>
+      <c r="F17" s="3">
         <v>85600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>52900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>60800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>56200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>76100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>50600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>123700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>78500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>206200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>141600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>179300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>63800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>55800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>3500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-12600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-6500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-11000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-91600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-76200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-95900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-16500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1180,52 +1246,60 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>7600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-16100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-6300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-7100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-4100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-12100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1259,149 +1333,173 @@
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>-98200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-25800</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F22" s="3">
         <v>1700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>2100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>2400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>2700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>4000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>8100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>3500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>3800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>2300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>3100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-8900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>3100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-7500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-7600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-26400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-13500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-101400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-87100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-102300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-31700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-13600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>900</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1444,96 +1542,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-9000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-7300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-7800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-26500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-14400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-102000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-87300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-102500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-31000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-9200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-7400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-7800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-26700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-14400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-101700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-87100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-102400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-30800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1576,13 +1692,19 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1590,38 +1712,44 @@
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-3100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-3000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-64400</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="3">
-        <v>-119000</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+        <v>-119000</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1664,8 +1792,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1708,96 +1842,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F32" s="3">
         <v>3900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-7600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>16100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>6300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>7100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>4100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>12100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-9200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-7400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-7800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-6800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-5500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-91100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-14400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-220700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-87100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-102400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-30800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1840,101 +1992,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-9200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-7400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-7800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-6800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-5500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-91100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-14400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-220700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-87100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-102400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-30800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42369</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42277</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1951,8 +2121,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1969,52 +2141,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>22800</v>
+      </c>
+      <c r="F41" s="3">
         <v>38900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>8700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>4100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>31000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>82100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>67500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>119700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2057,184 +2237,214 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>29500</v>
+      </c>
+      <c r="F43" s="3">
         <v>17300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>17100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>16700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>25700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>28300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>46400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>16500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>44700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>58700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>69400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>92000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>78500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>102800</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>23200</v>
+      </c>
+      <c r="F44" s="3">
         <v>17300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>10600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>13800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>13300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>11900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>13500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>15800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>20100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>12300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>15000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>59700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>87600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>63100</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F45" s="3">
         <v>5900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>26500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>23300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>28100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>29500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>65900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>100700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>83200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>79200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>114800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>159700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>181500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>160100</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>84100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>89200</v>
+      </c>
+      <c r="F46" s="3">
         <v>79300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>57500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>56500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>75800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>73900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>130600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>131300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>151700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>154300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>230200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>393600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>415000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>445700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2248,125 +2458,143 @@
         <v>69900</v>
       </c>
       <c r="G47" s="3">
+        <v>69900</v>
+      </c>
+      <c r="H47" s="3">
+        <v>69900</v>
+      </c>
+      <c r="I47" s="3">
         <v>70400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>74700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>92000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>88000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>60400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>46800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>65100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>46200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>40500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>67200</v>
+      </c>
+      <c r="F48" s="3">
         <v>59100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>50100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>50300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>43600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>37500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>86300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>39800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>159400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>156700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>172800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>186200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>183400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>178700</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F49" s="3">
         <v>8600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>80400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>80500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>80800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2409,8 +2637,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2453,52 +2687,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
       </c>
       <c r="I52" s="3">
+        <v>100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>100</v>
+      </c>
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>61200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>3200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>7300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2541,52 +2787,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>228100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>238200</v>
+      </c>
+      <c r="F54" s="3">
         <v>217000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>179700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>178900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>192900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>188700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>312200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>317300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>376300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>361800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>549400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>709600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>727000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>731200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2603,8 +2861,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2621,272 +2881,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>22300</v>
+      </c>
+      <c r="F57" s="3">
         <v>15000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>17500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>19700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>19700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>16300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>54500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>19100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>74300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>69600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>77400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>97800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>113700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>129500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>128900</v>
+      </c>
+      <c r="F58" s="3">
         <v>125500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>121800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>121900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>52500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>44800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>169500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>66900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>156100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>147700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>158500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>248800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>183200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>161000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F59" s="3">
         <v>11100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>25400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>28400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>101900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>105500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>160000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>331800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>127900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>113200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>103100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>127000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>113500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>140700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>173800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>164400</v>
+      </c>
+      <c r="F60" s="3">
         <v>151600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>164700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>170000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>174000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>166500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>383900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>386300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>358300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>330500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>338900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>473600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>410400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>400800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F61" s="3">
         <v>7200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>6700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>7800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>13100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>20100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>26900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>23200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>32000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>36700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>29300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>13200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>8900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F62" s="3">
         <v>9900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>8000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>6500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>4500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>5400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>6800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>7500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>46700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>6200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>12000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2929,8 +3227,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2973,8 +3277,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3017,52 +3327,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>205700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>190600</v>
+      </c>
+      <c r="F66" s="3">
         <v>171800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>182200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>187000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>195700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>192600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>417900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>419100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>401200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>378800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>418400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>496600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>435100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>424200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3079,8 +3401,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3123,8 +3447,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3167,8 +3497,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3211,8 +3547,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3255,52 +3597,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-637400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-606800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-591900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-582700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-585400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-578000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-570100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-563300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-557800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-481100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-466800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-333100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-246100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-143700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-112900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3343,8 +3697,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3387,8 +3747,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3431,52 +3797,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>47600</v>
+      </c>
+      <c r="F76" s="3">
         <v>45300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-8200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-105600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-101700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-24900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-17000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>131000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>213000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>291900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>306900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3519,101 +3897,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42369</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42277</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-9200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-7400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-7800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-6800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-5500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-91100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-14400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-220700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-87100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-102400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-30800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3630,8 +4026,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3666,16 +4064,22 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>1800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>2800</v>
       </c>
-      <c r="P83" s="3" t="s">
+      <c r="R83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3718,8 +4122,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3762,8 +4172,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3806,8 +4222,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3850,8 +4272,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3894,8 +4322,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3930,16 +4364,22 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-1300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-19000</v>
       </c>
-      <c r="P89" s="3" t="s">
+      <c r="R89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3956,8 +4396,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3992,16 +4434,22 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-14600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-6900</v>
       </c>
-      <c r="P91" s="3" t="s">
+      <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4044,8 +4492,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4088,8 +4542,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4124,16 +4584,22 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-21800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-48200</v>
       </c>
-      <c r="P94" s="3" t="s">
+      <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4150,8 +4616,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4194,8 +4662,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4238,8 +4712,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4282,8 +4762,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4326,8 +4812,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4362,16 +4854,22 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>37700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>20200</v>
       </c>
-      <c r="P100" s="3" t="s">
+      <c r="R100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4414,8 +4912,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4450,12 +4954,18 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>14700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-46900</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>SPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,8 +665,8 @@
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -677,222 +677,248 @@
     <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42369</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42277</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>38500</v>
+      </c>
+      <c r="F8" s="3">
         <v>82600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>79400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>82300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>56400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>48200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>49700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>74900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>50600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>121500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>67500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>114600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>65400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>83400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>47300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>35800</v>
+      </c>
+      <c r="F9" s="3">
         <v>79300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>72100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>68600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>53200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>46500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>44100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>69400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>45100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>111400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>59200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>102500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>55300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>92300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>40800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F10" s="3">
         <v>3300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>7300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>13700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>3200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>5600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>5500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>10100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>8300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>12100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>10100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>6500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,8 +937,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -961,8 +989,14 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1011,13 +1045,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1029,40 +1069,46 @@
         <v>8</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>4700</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>-1900</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>26800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>142100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>52600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>56200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1111,8 +1157,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1128,108 +1180,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45500</v>
+      </c>
+      <c r="F17" s="3">
         <v>111600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>91900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>85600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>52900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>60800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>56200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>76100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>50600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>123700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>78500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>206200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>141600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>179300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>63800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>55800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-29000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-12500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-12600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-6500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-11000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-91600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-76200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-95900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-16500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1248,58 +1314,66 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-3900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>7600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-16100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-6300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-7100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-12100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1339,167 +1413,191 @@
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>-98200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-25800</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F22" s="3">
         <v>2400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>2700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>2100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>2400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>2700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>4000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>8100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>2500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>3500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>3800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>3100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-29700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-13700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-8900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-7500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-7600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-26400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-13500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-101400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-87100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-102300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-31700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-13600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1548,108 +1646,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-30300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-14600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-9000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-7300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-7800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-26500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-14400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-102000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-87300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-102500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-31000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-30600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-14900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-9200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-7400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-7800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-26700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-14400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-101700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-87100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-102400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-30800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1698,8 +1814,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1709,8 +1831,8 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1718,38 +1840,44 @@
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-3100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-3000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-64400</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-119000</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1798,8 +1926,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1848,108 +1982,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>3900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-7600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>16100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>6300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>7100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>4100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>12100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-30600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-14900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-9200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-7400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-7800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-6800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-5500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-91100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-14400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-220700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-87100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-102400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-30800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1998,113 +2150,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-30600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-14900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-9200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-7400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-7800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-6800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-5500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-91100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-14400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-220700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-87100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-102400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-30800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42369</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42277</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2123,8 +2293,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2143,58 +2315,66 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F41" s="3">
         <v>9800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>22800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>38900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>8700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>31000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>82100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>67500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>119700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2243,216 +2423,246 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>26100</v>
+      </c>
+      <c r="F43" s="3">
         <v>24500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>29500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>17300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>17100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>16700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>25700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>28300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>46400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>16500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>44700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>58700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>69400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>92000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>78500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>102800</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>27100</v>
+      </c>
+      <c r="F44" s="3">
         <v>23200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>23200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>17300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>10600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>13800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>13300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>11900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>13500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>15800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>20100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>12300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>15000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>59700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>87600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>63100</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>28200</v>
+      </c>
+      <c r="F45" s="3">
         <v>26600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>13600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>5900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>26500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>23300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>28100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>29500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>65900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>100700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>83200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>79200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>114800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>159700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>181500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>160100</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>87600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>85100</v>
+      </c>
+      <c r="F46" s="3">
         <v>84100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>89200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>79300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>57500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>56500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>75800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>73900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>130600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>131300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>151700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>154300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>230200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>393600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>415000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>445700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>69900</v>
+        <v>71600</v>
       </c>
       <c r="E47" s="3">
-        <v>69900</v>
+        <v>70300</v>
       </c>
       <c r="F47" s="3">
         <v>69900</v>
@@ -2464,137 +2674,155 @@
         <v>69900</v>
       </c>
       <c r="I47" s="3">
+        <v>69900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>69900</v>
+      </c>
+      <c r="K47" s="3">
         <v>70400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>74700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>92000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>88000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>60400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>46800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>65100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>46200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>40500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>63700</v>
+      </c>
+      <c r="F48" s="3">
         <v>65600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>67200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>59100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>50100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>50300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>43600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>37500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>86300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>39800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>159400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>156700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>172800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>186200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>183400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>178700</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F49" s="3">
         <v>8300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>11600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>8600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>80400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>80500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>80800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2643,8 +2871,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2693,58 +2927,70 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
       </c>
       <c r="K52" s="3">
+        <v>100</v>
+      </c>
+      <c r="L52" s="3">
+        <v>100</v>
+      </c>
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>61200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>3200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>7300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2793,58 +3039,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>228500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>227500</v>
+      </c>
+      <c r="F54" s="3">
         <v>228100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>238200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>217000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>179700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>178900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>192900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>188700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>312200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>317300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>376300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>361800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>549400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>709600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>727000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>731200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2863,8 +3121,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2883,308 +3143,346 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>26700</v>
+      </c>
+      <c r="F57" s="3">
         <v>25600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>22300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>15000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>17500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>19700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>19700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>16300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>54500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>19100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>74300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>69600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>77400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>97800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>113700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>125600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>130600</v>
+      </c>
+      <c r="F58" s="3">
         <v>129500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>128900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>125500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>121800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>121900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>52500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>44800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>169500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>66900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>156100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>147700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>158500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>248800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>183200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>161000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>20800</v>
+      </c>
+      <c r="F59" s="3">
         <v>18700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>13200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>11100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>25400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>28400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>101900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>105500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>160000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>331800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>127900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>113200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>103100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>127000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>113500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>140700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>170200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>178100</v>
+      </c>
+      <c r="F60" s="3">
         <v>173800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>164400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>151600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>164700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>170000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>174000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>166500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>383900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>386300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>358300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>330500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>338900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>473600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>410400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>400800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F61" s="3">
         <v>12800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>11000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>7200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>6700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>7800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>13100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>20100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>26900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>23200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>32000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>36700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>29300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>13200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>8900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F62" s="3">
         <v>15500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>11900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>9900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>8000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>6500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>4500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>5400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>6800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>7500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>46700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>6200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>12000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3233,8 +3531,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3283,8 +3587,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3333,58 +3643,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>196900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>208300</v>
+      </c>
+      <c r="F66" s="3">
         <v>205700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>190600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>171800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>182200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>187000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>195700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>192600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>417900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>419100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>401200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>378800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>418400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>496600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>435100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>424200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3403,8 +3725,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3453,8 +3777,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3503,8 +3833,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3553,8 +3889,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3603,58 +3945,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-646500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-644200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-637400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-606800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-591900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-582700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-585400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-578000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-570100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-563300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-557800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-481100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-466800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-333100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-246100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-143700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-112900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3703,8 +4057,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3753,8 +4113,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3803,58 +4169,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>19300</v>
+      </c>
+      <c r="F76" s="3">
         <v>22400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>47600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>45300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-8200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-105600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-101700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-24900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-17000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>131000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>213000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>291900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>306900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3903,113 +4281,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42369</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42277</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-30600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-14900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-9200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-7400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-7800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-6800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-5500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-91100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-14400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-220700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-87100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-102400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-30800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4028,8 +4424,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4070,16 +4468,22 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>1800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>2800</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4128,8 +4532,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4178,8 +4588,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4228,8 +4644,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4278,8 +4700,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4328,31 +4756,37 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>-8600</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -4370,16 +4804,22 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-19000</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4398,31 +4838,33 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4440,16 +4882,22 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-6900</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4498,8 +4946,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4548,31 +5002,37 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>1100</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4590,16 +5050,22 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-21800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-48200</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4618,8 +5084,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4668,8 +5136,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4718,8 +5192,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4768,8 +5248,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4818,31 +5304,37 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>13700</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>2100</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4860,39 +5352,45 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>37700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>20200</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4918,31 +5416,37 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>8400</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>-5000</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -4960,12 +5464,18 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>14700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-46900</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>SPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,260 +665,273 @@
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42369</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42277</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E8" s="3">
         <v>48600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>38500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>82600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>79400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>82300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>56400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>48200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>49700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>74900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>50600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>121500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>67500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>114600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>65400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>83400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>47300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E9" s="3">
         <v>44700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>35800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>79300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>72100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>68600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>53200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>46500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>44100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>69400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>45100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>111400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>59200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>102500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>55300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>92300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>40800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E10" s="3">
         <v>3900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>13700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>5500</v>
       </c>
       <c r="M10" s="3">
         <v>5500</v>
       </c>
       <c r="N10" s="3">
+        <v>5500</v>
+      </c>
+      <c r="O10" s="3">
         <v>10100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>12100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>10100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-8900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +952,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -995,8 +1009,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1051,64 +1068,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>2200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>4700</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>-1900</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>26800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>142100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>52600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>56200</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1163,8 +1186,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1182,120 +1208,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E17" s="3">
         <v>54200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>45500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>111600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>91900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>85600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>52900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>60800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>56200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>76100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>50600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>123700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>78500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>206200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>141600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>179300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>63800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>55800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-29000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-11000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-91600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-76200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-95900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-16500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1316,64 +1349,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E20" s="3">
         <v>5500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-16100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-12100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1419,185 +1456,197 @@
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>-98200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-25800</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
         <v>1600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-29700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-26400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-101400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-87100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-102300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-31700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-13600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
       </c>
       <c r="O24" s="3">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1652,120 +1701,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-30300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-26500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-14400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-102000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-87300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-102500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-31000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-30600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-26700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-14400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-101700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-87100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-102400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-30800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1820,8 +1878,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1837,38 +1898,38 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-3100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-3000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-64400</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-119000</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -1876,8 +1937,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1932,8 +1996,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1988,120 +2055,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>16100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>6300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>12100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-30600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-91100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-14400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-220700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-87100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-102400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-30800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2156,125 +2232,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-30600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-91100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-14400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-220700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-87100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-102400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-30800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42369</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42277</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2295,8 +2380,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2317,64 +2403,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E41" s="3">
         <v>13600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>38900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>31000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>82100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>67500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>119700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2429,120 +2519,129 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E43" s="3">
         <v>20800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>26100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>24500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>29500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>17300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>17100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>16700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>28300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>46400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>16500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>44700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>58700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>69400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>92000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>78500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>102800</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E44" s="3">
         <v>23700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>27100</v>
-      </c>
-      <c r="F44" s="3">
-        <v>23200</v>
       </c>
       <c r="G44" s="3">
         <v>23200</v>
       </c>
       <c r="H44" s="3">
+        <v>23200</v>
+      </c>
+      <c r="I44" s="3">
         <v>17300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>10600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>13800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>15800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>20100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>15000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>59700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>87600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>63100</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2550,122 +2649,128 @@
         <v>29500</v>
       </c>
       <c r="E45" s="3">
+        <v>29500</v>
+      </c>
+      <c r="F45" s="3">
         <v>28200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>26600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>26500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>23300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>29500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>65900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>83200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>79200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>114800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>159700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>181500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>160100</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E46" s="3">
         <v>87600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>85100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>84100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>89200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>79300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>57500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>56500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>75800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>73900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>130600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>131300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>151700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>154300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>230200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>393600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>415000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>445700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>69600</v>
+      </c>
+      <c r="E47" s="3">
         <v>71600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>70300</v>
-      </c>
-      <c r="F47" s="3">
-        <v>69900</v>
       </c>
       <c r="G47" s="3">
         <v>69900</v>
@@ -2680,149 +2785,158 @@
         <v>69900</v>
       </c>
       <c r="K47" s="3">
+        <v>69900</v>
+      </c>
+      <c r="L47" s="3">
         <v>70400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>74700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>92000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>88000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>60400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>46800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>65100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>46200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>40500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E48" s="3">
         <v>61200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>63700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>65600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>67200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>59100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>50100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>50300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>43600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>37500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>86300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>39800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>159400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>156700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>172800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>186200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>183400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>178700</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E49" s="3">
         <v>7900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>8300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>8600</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2200</v>
       </c>
       <c r="J49" s="3">
         <v>2200</v>
       </c>
       <c r="K49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L49" s="3">
         <v>2900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3000</v>
-      </c>
-      <c r="O49" s="3">
-        <v>2900</v>
       </c>
       <c r="P49" s="3">
         <v>2900</v>
       </c>
       <c r="Q49" s="3">
+        <v>2900</v>
+      </c>
+      <c r="R49" s="3">
         <v>80400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>80500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>80800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2877,8 +2991,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2933,31 +3050,34 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
@@ -2966,31 +3086,34 @@
         <v>100</v>
       </c>
       <c r="M52" s="3">
+        <v>100</v>
+      </c>
+      <c r="N52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>61200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3045,64 +3168,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>224200</v>
+      </c>
+      <c r="E54" s="3">
         <v>228500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>227500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>228100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>238200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>217000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>179700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>178900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>192900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>188700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>312200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>317300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>376300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>361800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>549400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>709600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>727000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>731200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3123,8 +3252,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3145,344 +3275,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E57" s="3">
         <v>25100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>26700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>25600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>22300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>15000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>19700</v>
       </c>
       <c r="K57" s="3">
         <v>19700</v>
       </c>
       <c r="L57" s="3">
+        <v>19700</v>
+      </c>
+      <c r="M57" s="3">
         <v>16300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>54500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>74300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>69600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>77400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>97800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>113700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>119900</v>
+      </c>
+      <c r="E58" s="3">
         <v>125600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>130600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>129500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>128900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>125500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>121800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>121900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>52500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>44800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>169500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>66900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>156100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>147700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>158500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>248800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>183200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>161000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E59" s="3">
         <v>19500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>25400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>28400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>101900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>105500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>160000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>331800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>127900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>113200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>103100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>127000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>113500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>140700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>179800</v>
+      </c>
+      <c r="E60" s="3">
         <v>170200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>178100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>173800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>164400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>151600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>164700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>170000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>174000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>166500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>383900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>386300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>358300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>330500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>338900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>473600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>410400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>400800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E61" s="3">
         <v>6900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>12000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>12800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>11000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>20100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>26900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>32000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>36700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>29300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>13200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E62" s="3">
         <v>14700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>46700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>12000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3537,8 +3686,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3593,8 +3745,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3649,64 +3804,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E66" s="3">
         <v>196900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>208300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>205700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>190600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>171800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>182200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>187000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>195700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>192600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>417900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>419100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>401200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>378800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>418400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>496600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>435100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>424200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3727,8 +3888,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3783,8 +3945,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3839,8 +4004,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3895,8 +4063,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3951,64 +4122,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-660000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-646500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-644200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-637400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-606800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-591900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-582700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-585400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-578000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-570100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-563300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-557800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-481100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-466800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-333100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-246100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-143700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-112900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4063,8 +4240,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4119,8 +4299,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4175,64 +4358,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E76" s="3">
         <v>31600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>47600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>45300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-8200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-105600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-101700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-24900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>131000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>213000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>291900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>306900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4287,125 +4476,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42369</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42277</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-30600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-91100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-14400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-220700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-87100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-102400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-30800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4426,8 +4624,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4474,16 +4673,19 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>1800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2800</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4538,8 +4740,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4594,8 +4799,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4650,8 +4858,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4706,8 +4917,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4762,20 +4976,23 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8600</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>8</v>
       </c>
@@ -4788,8 +5005,8 @@
       <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4810,16 +5027,19 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-1300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-19000</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4840,20 +5060,21 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
@@ -4866,8 +5087,8 @@
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4888,16 +5109,19 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-14600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6900</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4952,8 +5176,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5008,20 +5235,23 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1100</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
@@ -5034,8 +5264,8 @@
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -5056,16 +5286,19 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-21800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-48200</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5086,8 +5319,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5142,8 +5376,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5198,8 +5435,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5254,8 +5494,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5310,20 +5553,23 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E100" s="3">
         <v>13700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2100</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>8</v>
       </c>
@@ -5336,8 +5582,8 @@
       <c r="J100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -5358,28 +5604,31 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>37700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>20200</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
@@ -5392,8 +5641,8 @@
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -5422,20 +5671,23 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E102" s="3">
         <v>8400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5000</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>8</v>
       </c>
@@ -5448,8 +5700,8 @@
       <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -5470,12 +5722,15 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>14700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-46900</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,273 +665,285 @@
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42369</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42277</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E8" s="3">
         <v>43200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>48600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>38500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>82600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>79400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>82300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>56400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>48200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>49700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>74900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>50600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>121500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>67500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>114600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>65400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>83400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>47300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E9" s="3">
         <v>45500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>44700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>35800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>79300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>72100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>68600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>53200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>46500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>44100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>69400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>45100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>111400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>59200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>102500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>55300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>92300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>40800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E10" s="3">
         <v>-2300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>13700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5600</v>
-      </c>
-      <c r="M10" s="3">
-        <v>5500</v>
       </c>
       <c r="N10" s="3">
         <v>5500</v>
       </c>
       <c r="O10" s="3">
+        <v>5500</v>
+      </c>
+      <c r="P10" s="3">
         <v>10100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>12100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>10100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-8900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,8 +965,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1012,8 +1025,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1071,67 +1087,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E14" s="3">
         <v>2200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>4700</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>-1900</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>26800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>142100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>52600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>56200</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1189,8 +1211,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1209,126 +1234,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E17" s="3">
         <v>57400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>54200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>45500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>111600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>91900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>85600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>52900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>60800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>56200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>76100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>50600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>123700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>78500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>206200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>141600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>179300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>63800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>55800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-14200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-29000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-91600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-76200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-95900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-16500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1350,67 +1382,71 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E20" s="3">
         <v>2700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-16100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-6300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-12100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1459,194 +1495,206 @@
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3">
         <v>-98200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-25800</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-29700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-26400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-101400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-87100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-102300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-31700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-13600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
       </c>
       <c r="P24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1704,126 +1752,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-30300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-26500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-102000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-87300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-102500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-31000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-30600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-26700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-101700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-87100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-102400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-30800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1881,8 +1938,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1901,38 +1961,38 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-3100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-3000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-64400</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-119000</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -1940,8 +2000,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1999,8 +2062,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2058,126 +2124,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>16100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>6300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>12100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-30600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-91100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-220700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-87100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-102400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-30800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2235,131 +2310,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-30600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-91100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-220700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-87100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-102400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-30800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42369</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42277</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2381,8 +2465,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2404,67 +2489,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E41" s="3">
         <v>6100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>22800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>38900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>31000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>82100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>67500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>119700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2522,258 +2611,273 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E43" s="3">
         <v>21400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>20800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>26100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>24500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>29500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>17300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>17100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>25700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>28300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>46400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>16500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>44700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>58700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>69400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>92000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>78500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>102800</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E44" s="3">
         <v>26000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>23700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>27100</v>
-      </c>
-      <c r="G44" s="3">
-        <v>23200</v>
       </c>
       <c r="H44" s="3">
         <v>23200</v>
       </c>
       <c r="I44" s="3">
+        <v>23200</v>
+      </c>
+      <c r="J44" s="3">
         <v>17300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>10600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>11900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>13500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>15800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>20100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>12300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>15000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>59700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>87600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>63100</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29500</v>
+        <v>25000</v>
       </c>
       <c r="E45" s="3">
         <v>29500</v>
       </c>
       <c r="F45" s="3">
+        <v>29500</v>
+      </c>
+      <c r="G45" s="3">
         <v>28200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>26600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>26500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>28100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>29500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>65900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>83200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>79200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>114800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>159700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>181500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>160100</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E46" s="3">
         <v>83000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>87600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>85100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>84100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>89200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>79300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>57500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>56500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>75800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>73900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>130600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>131300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>151700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>154300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>230200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>393600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>415000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>445700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E47" s="3">
         <v>69600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>71600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>70300</v>
-      </c>
-      <c r="G47" s="3">
-        <v>69900</v>
       </c>
       <c r="H47" s="3">
         <v>69900</v>
@@ -2788,155 +2892,164 @@
         <v>69900</v>
       </c>
       <c r="L47" s="3">
+        <v>69900</v>
+      </c>
+      <c r="M47" s="3">
         <v>70400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>74700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>92000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>88000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>60400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>46800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>65100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>46200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>40500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>70600</v>
+      </c>
+      <c r="E48" s="3">
         <v>57100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>61200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>63700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>65600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>67200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>59100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>50100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>50300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>43600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>37500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>86300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>39800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>159400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>156700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>172800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>186200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>183400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>178700</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E49" s="3">
         <v>7800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>8000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>8300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>8600</v>
-      </c>
-      <c r="J49" s="3">
-        <v>2200</v>
       </c>
       <c r="K49" s="3">
         <v>2200</v>
       </c>
       <c r="L49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M49" s="3">
         <v>2900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3000</v>
-      </c>
-      <c r="P49" s="3">
-        <v>2900</v>
       </c>
       <c r="Q49" s="3">
         <v>2900</v>
       </c>
       <c r="R49" s="3">
+        <v>2900</v>
+      </c>
+      <c r="S49" s="3">
         <v>80400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>80500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>80800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2994,8 +3107,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3053,34 +3169,37 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3">
         <v>6800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
@@ -3089,31 +3208,34 @@
         <v>100</v>
       </c>
       <c r="N52" s="3">
+        <v>100</v>
+      </c>
+      <c r="O52" s="3">
         <v>600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>61200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3171,67 +3293,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>231100</v>
+      </c>
+      <c r="E54" s="3">
         <v>224200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>228500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>227500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>228100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>238200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>217000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>179700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>178900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>192900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>188700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>312200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>317300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>376300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>361800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>549400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>709600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>727000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>731200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3253,8 +3381,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3276,362 +3405,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E57" s="3">
         <v>30700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>25100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>26700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>25600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>22300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>15000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>17500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>19700</v>
       </c>
       <c r="L57" s="3">
         <v>19700</v>
       </c>
       <c r="M57" s="3">
+        <v>19700</v>
+      </c>
+      <c r="N57" s="3">
         <v>16300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>54500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>74300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>69600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>77400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>97800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>113700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>124900</v>
+      </c>
+      <c r="E58" s="3">
         <v>119900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>125600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>130600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>129500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>128900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>125500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>121800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>121900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>52500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>44800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>169500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>66900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>156100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>147700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>158500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>248800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>183200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>161000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E59" s="3">
         <v>29300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>19500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>18700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>25400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>101900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>105500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>160000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>331800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>127900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>113200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>103100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>127000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>113500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>140700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>189700</v>
+      </c>
+      <c r="E60" s="3">
         <v>179800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>170200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>178100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>173800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>164400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>151600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>164700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>170000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>174000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>166500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>383900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>386300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>358300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>330500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>338900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>473600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>410400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>400800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E61" s="3">
         <v>6400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>12000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>11000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>26900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>23200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>32000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>36700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>29300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>13200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E62" s="3">
         <v>13800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>11900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>46700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>12000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3689,8 +3837,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3748,8 +3899,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3807,67 +3961,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>218900</v>
+      </c>
+      <c r="E66" s="3">
         <v>206000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>196900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>208300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>205700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>190600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>171800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>182200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>187000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>195700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>192600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>417900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>419100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>401200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>378800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>418400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>496600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>435100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>424200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3889,8 +4049,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3948,8 +4109,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4007,8 +4171,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4066,8 +4233,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4125,67 +4295,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-670800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-660000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-646500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-644200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-637400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-606800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-591900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-582700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-585400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-578000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-570100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-563300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-557800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-481100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-466800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-333100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-246100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-143700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-112900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4243,8 +4419,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4302,8 +4481,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4361,67 +4543,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E76" s="3">
         <v>18300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>31600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>22400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>47600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>45300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-8200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-105600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-101700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-24900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-17000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>131000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>213000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>291900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>306900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4479,131 +4667,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42369</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42277</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-30600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-91100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-220700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-87100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-102400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-30800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4625,8 +4822,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4676,16 +4874,19 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
         <v>1800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2800</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4743,8 +4944,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4802,8 +5006,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4861,8 +5068,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4920,8 +5130,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4979,23 +5192,26 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8600</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>8</v>
       </c>
@@ -5008,8 +5224,8 @@
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -5030,16 +5246,19 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-1300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-19000</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5061,37 +5280,38 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5112,16 +5332,19 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-14600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6900</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5179,8 +5402,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5238,23 +5464,26 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1100</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
@@ -5267,8 +5496,8 @@
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5289,16 +5518,19 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-21800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-48200</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5320,8 +5552,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5379,8 +5612,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5438,8 +5674,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5497,8 +5736,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5556,23 +5798,26 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>13700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>8</v>
       </c>
@@ -5585,8 +5830,8 @@
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5607,31 +5852,34 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>37700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>20200</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
       </c>
@@ -5644,8 +5892,8 @@
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -5674,23 +5922,26 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>8</v>
       </c>
@@ -5703,8 +5954,8 @@
       <c r="K102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -5725,12 +5976,15 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>14700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-46900</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>SPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,11 +665,11 @@
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -680,270 +680,296 @@
     <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42369</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42277</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>47900</v>
+      </c>
+      <c r="F8" s="3">
         <v>47200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>43200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>48600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>38500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>82600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>79400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>82300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>56400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>48200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>49700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>74900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>50600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>121500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>67500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>114600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>65400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>83400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>47300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>43400</v>
+      </c>
+      <c r="F9" s="3">
         <v>37000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>45500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>44700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>35800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>79300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>72100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>68600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>53200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>46500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>44100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>69400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>45100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>111400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>59200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>102500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>55300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>92300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>40800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F10" s="3">
         <v>10200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>-2300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>3900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>3300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>7300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>13700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>5600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>5500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>5500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>10100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>8300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>12100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>10100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>-8900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>6500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -966,8 +992,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1028,8 +1056,14 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1090,25 +1124,31 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>-4900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>2200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1120,40 +1160,46 @@
         <v>8</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>4700</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>-1900</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>26800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>142100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>52600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>56200</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1214,8 +1260,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1235,132 +1287,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>55200</v>
+      </c>
+      <c r="F17" s="3">
         <v>44400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>57400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>54200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>45500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>111600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>91900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>85600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>52900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>60800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>56200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>76100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>50600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>123700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>78500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>206200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>141600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>179300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>63800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>55800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F18" s="3">
         <v>2800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-14200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-5600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-7000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-29000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-12500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-12600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-6500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-11000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-91600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-76200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-95900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-16500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1383,70 +1449,78 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-10600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>2700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>5500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-3900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>7600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-6300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-7100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-4100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-12100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1498,203 +1572,227 @@
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="3">
         <v>-98200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-25800</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F22" s="3">
         <v>2900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>2400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>2700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>2700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>4000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>8100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>2500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>3500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>3800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>2300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>3100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-10600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-12800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-6500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-29700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-13700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-8900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-7500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-7600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-26400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-13500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-101400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-87100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-102300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-31700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-13600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1755,132 +1853,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-11200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-13500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-6800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-30300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-14600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-9000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-7300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-7800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-26500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-14400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-102000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-87300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-102500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-31000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-10800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-13400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-6800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-30600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-14900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-9200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-7400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-7800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-26700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-14400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-101700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-87100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-102400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-30800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1941,8 +2057,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,8 +2086,8 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1973,38 +2095,44 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-3100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-3000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-64400</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-119000</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2065,8 +2193,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2127,132 +2261,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>10600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-2700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-5500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>3900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-7600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>16100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>6300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>7100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>4100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>12100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-10800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-13400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-6800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-30600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-14900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-9200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-7400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-7800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-6800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-5500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-91100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-14400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-220700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-87100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-102400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-30800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2313,137 +2465,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-10800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-13400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-6800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-30600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-14900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-9200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-7400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-7800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-6800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-5500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-91100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-14400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-220700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-87100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-102400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-30800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42369</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42277</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2466,8 +2636,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2490,70 +2662,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F41" s="3">
         <v>3500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>6100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>13600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>9800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>22800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>38900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>8700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>4200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>31000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>82100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>67500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>119700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2614,276 +2794,306 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>25400</v>
+      </c>
+      <c r="F43" s="3">
         <v>24400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>21400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>20800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>26100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>24500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>29500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>17300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>17100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>16700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>25700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>28300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>46400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>16500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>44700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>58700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>69400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>92000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>78500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>102800</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>33300</v>
+      </c>
+      <c r="F44" s="3">
         <v>29000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>26000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>23700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>27100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>23200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>23200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>17300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>10600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>13800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>13300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>11900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>13500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>15800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>20100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>12300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>15000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>59700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>87600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>63100</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F45" s="3">
         <v>25000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>29500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>29500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>28200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>26600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>13600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>5900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>26500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>23300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>28100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>29500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>65900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>100700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>83200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>79200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>114800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>159700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>181500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>160100</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>82100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>81500</v>
+      </c>
+      <c r="F46" s="3">
         <v>82000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>83000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>87600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>85100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>84100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>89200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>79300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>57500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>56500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>75800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>73900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>130600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>131300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>151700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>154300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>230200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>393600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>415000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>445700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>70100</v>
+      </c>
+      <c r="F47" s="3">
         <v>69800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>69600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>71600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>70300</v>
-      </c>
-      <c r="H47" s="3">
-        <v>69900</v>
-      </c>
-      <c r="I47" s="3">
-        <v>69900</v>
       </c>
       <c r="J47" s="3">
         <v>69900</v>
@@ -2895,161 +3105,179 @@
         <v>69900</v>
       </c>
       <c r="M47" s="3">
+        <v>69900</v>
+      </c>
+      <c r="N47" s="3">
+        <v>69900</v>
+      </c>
+      <c r="O47" s="3">
         <v>70400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>74700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>92000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>88000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>60400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>46800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>65100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>46200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>40500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>69900</v>
+      </c>
+      <c r="F48" s="3">
         <v>70600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>57100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>61200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>63700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>65600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>67200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>59100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>50100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>50300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>43600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>37500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>86300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>39800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>159400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>156700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>172800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>186200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>183400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>178700</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F49" s="3">
         <v>7500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>7800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>7900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>8000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>8300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>11600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>8600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>3000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>2900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>80400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>80500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>80800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3110,8 +3338,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3172,70 +3406,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>6800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>200</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
       </c>
       <c r="M52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
       </c>
       <c r="O52" s="3">
+        <v>100</v>
+      </c>
+      <c r="P52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q52" s="3">
         <v>600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>61200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>3200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>7300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3296,70 +3542,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>230500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>230300</v>
+      </c>
+      <c r="F54" s="3">
         <v>231100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>224200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>228500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>227500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>228100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>238200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>217000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>179700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>178900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>192900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>188700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>312200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>317300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>376300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>361800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>549400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>709600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>727000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>731200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3382,8 +3640,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3406,380 +3666,418 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>37100</v>
+      </c>
+      <c r="F57" s="3">
         <v>30400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>30700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>25100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>26700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>25600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>22300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>15000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>17500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>19700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>19700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>16300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>54500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>19100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>74300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>69600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>77400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>97800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>113700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>127100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>125000</v>
+      </c>
+      <c r="F58" s="3">
         <v>124900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>119900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>125600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>130600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>129500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>128900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>125500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>121800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>121900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>52500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>44800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>169500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>66900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>156100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>147700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>158500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>248800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>183200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>161000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>34900</v>
+      </c>
+      <c r="F59" s="3">
         <v>34400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>29300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>19500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>20800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>18700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>13200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>11100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>25400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>28400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>101900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>105500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>160000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>331800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>127900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>113200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>103100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>127000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>113500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>140700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>198800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>196900</v>
+      </c>
+      <c r="F60" s="3">
         <v>189700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>179800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>170200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>178100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>173800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>164400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>151600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>164700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>170000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>174000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>166500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>383900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>386300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>358300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>330500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>338900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>473600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>410400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>400800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E61" s="3">
         <v>6600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G61" s="3">
         <v>6400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>6900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>12000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>12800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>11000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>7200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>6700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>7800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>13100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>20100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>26900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>23200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>32000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>36700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>29300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>13200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>8900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F62" s="3">
         <v>16900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>13800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>14700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>15200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>15500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>11900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>9900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>8000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>6500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>4500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>3100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>5400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>6800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>7500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>46700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>6200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>12000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3840,8 +4138,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3902,8 +4206,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3964,70 +4274,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>225600</v>
+      </c>
+      <c r="F66" s="3">
         <v>218900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>206000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>196900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>208300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>205700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>190600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>171800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>182200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>187000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>195700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>192600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>417900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>419100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>401200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>378800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>418400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>496600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>435100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>424200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4050,8 +4372,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4112,8 +4436,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4174,8 +4504,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4236,8 +4572,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4298,70 +4640,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-682700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-680200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-670800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-660000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-646500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-644200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-637400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-606800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-591900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-582700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-585400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-578000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-570100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-563300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-557800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-481100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-466800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-333100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-246100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-143700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-112900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4422,8 +4776,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4484,8 +4844,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4546,70 +4912,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F76" s="3">
         <v>12200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>18300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>31600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>19300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>22400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>47600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>45300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-8200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-3900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-105600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-101700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-24900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-17000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>131000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>213000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>291900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>306900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4670,137 +5048,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42369</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42277</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-10800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-13400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-6800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-30600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-14900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-9200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-7400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-7800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-6800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-5500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-91100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-14400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-220700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-87100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-102400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-30800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4823,8 +5219,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4877,16 +5275,22 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
         <v>1800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>2800</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4947,8 +5351,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5009,8 +5419,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5071,8 +5487,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5133,8 +5555,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5195,29 +5623,35 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3000</v>
+        <v>-600</v>
       </c>
       <c r="E89" s="3">
-        <v>-1400</v>
+        <v>-4900</v>
       </c>
       <c r="F89" s="3">
         <v>-3000</v>
       </c>
       <c r="G89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I89" s="3">
         <v>-8600</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
@@ -5227,11 +5661,11 @@
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -5249,16 +5683,22 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-1300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-19000</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5281,43 +5721,45 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-4500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5335,16 +5777,22 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-14600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-6900</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5405,8 +5853,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5467,29 +5921,35 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-4200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>1100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
@@ -5499,11 +5959,11 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -5521,16 +5981,22 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-21800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-48200</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5553,8 +6019,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5615,8 +6083,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5677,8 +6151,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5739,8 +6219,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5801,29 +6287,35 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F100" s="3">
         <v>3800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>13700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>2100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
       </c>
@@ -5833,11 +6325,11 @@
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -5855,37 +6347,43 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>37700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>20200</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
@@ -5895,11 +6393,11 @@
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -5925,29 +6423,35 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-8500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>8400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-5000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
@@ -5957,11 +6461,11 @@
       <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -5979,12 +6483,18 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>14700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-46900</v>
       </c>
-      <c r="V102" s="3" t="s">
+      <c r="X102" s="3" t="s">
         <v>8</v>
       </c>
     </row>
